--- a/data/output/FV2504_FV2410/ORDERS/17130.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17130.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="308">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="308">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1109,6 +1109,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U161" totalsRowShown="0">
+  <autoFilter ref="A1:U161"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1398,7 +1428,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8686,5 +8719,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17130.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17130.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="467">
   <si>
     <t>#</t>
   </si>
@@ -9053,44 +9053,42 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V146" s="5"/>
+      <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -9284,9 +9282,7 @@
         <v>210</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>44</v>
       </c>
@@ -9313,46 +9309,44 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K151" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L151" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="V151" s="5" t="s">
+      <c r="V151" s="2" t="s">
         <v>279</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/ORDERS/17130.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17130.xlsx
@@ -1570,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1596,7 +1596,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,7 +2049,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2407,7 +2413,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2553,7 +2559,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2759,7 +2765,7 @@
         <v>259</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2961,7 +2967,7 @@
         <v>260</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3169,7 +3175,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3375,7 +3381,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3691,7 +3697,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3865,52 +3871,52 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4267,7 +4273,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4579,7 +4585,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4879,7 +4885,7 @@
         <v>264</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5195,7 +5201,7 @@
         <v>265</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5619,7 +5625,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5819,7 +5825,7 @@
         <v>268</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6243,7 +6249,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6443,7 +6449,7 @@
         <v>270</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6866,19 +6872,19 @@
       <c r="M95" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N95" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9" t="s">
+      <c r="N95" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="V95" s="9" t="s">
+      <c r="V95" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6899,26 +6905,26 @@
       <c r="L96" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M96" s="9" t="s">
+      <c r="M96" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N96" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O96" s="9" t="s">
+      <c r="N96" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O96" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9" t="s">
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9" t="s">
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="V96" s="9"/>
+      <c r="V96" s="10"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6937,30 +6943,30 @@
       <c r="L97" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M97" s="9" t="s">
+      <c r="M97" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N97" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O97" s="9" t="s">
+      <c r="N97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O97" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P97" s="9" t="s">
+      <c r="P97" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q97" s="9" t="s">
+      <c r="Q97" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9" t="s">
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="U97" s="9" t="s">
+      <c r="U97" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V97" s="9" t="s">
+      <c r="V97" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6981,30 +6987,30 @@
       <c r="L98" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M98" s="9" t="s">
+      <c r="M98" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O98" s="9" t="s">
+      <c r="N98" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O98" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P98" s="9" t="s">
+      <c r="P98" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q98" s="9" t="s">
+      <c r="Q98" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R98" s="9" t="s">
+      <c r="R98" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9" t="s">
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="V98" s="9"/>
+      <c r="V98" s="10"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7023,26 +7029,26 @@
       <c r="L99" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M99" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N99" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O99" s="9" t="s">
+      <c r="N99" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O99" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9" t="s">
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9" t="s">
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="V99" s="9"/>
+      <c r="V99" s="10"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -7061,28 +7067,28 @@
       <c r="L100" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M100" s="9" t="s">
+      <c r="M100" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N100" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O100" s="9" t="s">
+      <c r="N100" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O100" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P100" s="9" t="s">
+      <c r="P100" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q100" s="9" t="s">
+      <c r="Q100" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9" t="s">
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="V100" s="9"/>
+      <c r="V100" s="10"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -7101,30 +7107,30 @@
       <c r="L101" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M101" s="9" t="s">
+      <c r="M101" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N101" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O101" s="9" t="s">
+      <c r="N101" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O101" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P101" s="9" t="s">
+      <c r="P101" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q101" s="9" t="s">
+      <c r="Q101" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9" t="s">
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="U101" s="9" t="s">
+      <c r="U101" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V101" s="9" t="s">
+      <c r="V101" s="10" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7145,32 +7151,32 @@
       <c r="L102" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M102" s="9" t="s">
+      <c r="M102" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N102" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O102" s="9" t="s">
+      <c r="N102" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O102" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P102" s="9" t="s">
+      <c r="P102" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q102" s="9" t="s">
+      <c r="Q102" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R102" s="9" t="s">
+      <c r="R102" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9" t="s">
+      <c r="S102" s="10"/>
+      <c r="T102" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="U102" s="9" t="s">
+      <c r="U102" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="V102" s="9"/>
+      <c r="V102" s="10"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7192,19 +7198,19 @@
       <c r="M103" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N103" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9" t="s">
+      <c r="N103" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="V103" s="9" t="s">
+      <c r="V103" s="10" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7225,26 +7231,26 @@
       <c r="L104" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M104" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N104" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O104" s="9" t="s">
+      <c r="N104" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O104" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9" t="s">
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9" t="s">
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="V104" s="9"/>
+      <c r="V104" s="10"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7263,30 +7269,30 @@
       <c r="L105" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="M105" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N105" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O105" s="9" t="s">
+      <c r="N105" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O105" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P105" s="9" t="s">
+      <c r="P105" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q105" s="9" t="s">
+      <c r="Q105" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9" t="s">
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="U105" s="9" t="s">
+      <c r="U105" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="V105" s="9" t="s">
+      <c r="V105" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7307,28 +7313,28 @@
       <c r="L106" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="M106" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N106" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O106" s="9" t="s">
+      <c r="N106" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O106" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P106" s="9" t="s">
+      <c r="P106" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q106" s="9" t="s">
+      <c r="Q106" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9" t="s">
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="V106" s="9"/>
+      <c r="V106" s="10"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7347,26 +7353,26 @@
       <c r="L107" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M107" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N107" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O107" s="9" t="s">
+      <c r="N107" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O107" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9" t="s">
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9" t="s">
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="V107" s="9"/>
+      <c r="V107" s="10"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7385,28 +7391,28 @@
       <c r="L108" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N108" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O108" s="9" t="s">
+      <c r="N108" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O108" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P108" s="9" t="s">
+      <c r="P108" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q108" s="9" t="s">
+      <c r="Q108" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9" t="s">
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="V108" s="9"/>
+      <c r="V108" s="10"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7425,30 +7431,30 @@
       <c r="L109" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="M109" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N109" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O109" s="9" t="s">
+      <c r="N109" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O109" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="P109" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q109" s="9" t="s">
+      <c r="Q109" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9" t="s">
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="U109" s="9" t="s">
+      <c r="U109" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="V109" s="9" t="s">
+      <c r="V109" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7469,53 +7475,53 @@
       <c r="L110" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="M110" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N110" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O110" s="9" t="s">
+      <c r="N110" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O110" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P110" s="9" t="s">
+      <c r="P110" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q110" s="9" t="s">
+      <c r="Q110" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R110" s="9" t="s">
+      <c r="R110" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9" t="s">
+      <c r="S110" s="10"/>
+      <c r="T110" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="U110" s="9" t="s">
+      <c r="U110" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="V110" s="9"/>
+      <c r="V110" s="10"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="6" t="s">
         <v>240</v>
       </c>
@@ -7525,22 +7531,22 @@
       <c r="L111" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N111" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O111" s="5" t="s">
+      <c r="N111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O111" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P111" s="5"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
       <c r="U111" s="6" t="s">
         <v>251</v>
       </c>
@@ -7675,53 +7681,53 @@
       <c r="L114" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M114" s="9" t="s">
+      <c r="M114" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N114" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O114" s="9" t="s">
+      <c r="N114" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O114" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P114" s="9" t="s">
+      <c r="P114" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q114" s="9" t="s">
+      <c r="Q114" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9" t="s">
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="U114" s="9" t="s">
+      <c r="U114" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="V114" s="9" t="s">
+      <c r="V114" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
       <c r="J115" s="6" t="s">
         <v>240</v>
       </c>
@@ -7731,22 +7737,22 @@
       <c r="L115" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O115" s="5" t="s">
+      <c r="N115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O115" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
       <c r="U115" s="6" t="s">
         <v>251</v>
       </c>
@@ -7867,25 +7873,25 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C118" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="6" t="s">
         <v>240</v>
       </c>
@@ -7895,22 +7901,22 @@
       <c r="L118" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N118" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O118" s="5" t="s">
+      <c r="N118" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P118" s="5"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
       <c r="U118" s="6" t="s">
         <v>251</v>
       </c>
@@ -8034,25 +8040,25 @@
       <c r="A121" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10" t="s">
+      <c r="C121" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K121" s="10" t="s">
+      <c r="K121" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M121" s="5"/>
@@ -8070,27 +8076,27 @@
       <c r="A122" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="C122" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10" t="s">
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K122" s="10"/>
-      <c r="L122" s="11" t="s">
+      <c r="K122" s="12"/>
+      <c r="L122" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M122" s="5"/>
@@ -8108,33 +8114,33 @@
       <c r="A123" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D123" s="10" t="s">
+      <c r="C123" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10" t="s">
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J123" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K123" s="10" t="s">
+      <c r="K123" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L123" s="11" t="s">
+      <c r="L123" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M123" s="5"/>
@@ -8152,31 +8158,31 @@
       <c r="A124" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D124" s="10" t="s">
+      <c r="C124" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G124" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10" t="s">
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K124" s="10"/>
-      <c r="L124" s="11" t="s">
+      <c r="K124" s="12"/>
+      <c r="L124" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M124" s="5"/>
@@ -8194,27 +8200,27 @@
       <c r="A125" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="C125" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10" t="s">
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K125" s="10"/>
-      <c r="L125" s="11" t="s">
+      <c r="K125" s="12"/>
+      <c r="L125" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M125" s="5"/>
@@ -8232,29 +8238,29 @@
       <c r="A126" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="C126" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10" t="s">
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="K126" s="10"/>
-      <c r="L126" s="11" t="s">
+      <c r="K126" s="12"/>
+      <c r="L126" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M126" s="5"/>
@@ -8272,33 +8278,33 @@
       <c r="A127" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10" t="s">
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J127" s="10" t="s">
+      <c r="J127" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K127" s="10" t="s">
+      <c r="K127" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="L127" s="11" t="s">
+      <c r="L127" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M127" s="5"/>
@@ -8316,33 +8322,33 @@
       <c r="A128" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G128" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10" t="s">
+      <c r="H128" s="12"/>
+      <c r="I128" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="K128" s="10"/>
-      <c r="L128" s="11" t="s">
+      <c r="K128" s="12"/>
+      <c r="L128" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M128" s="5"/>
@@ -8360,25 +8366,25 @@
       <c r="A129" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10" t="s">
+      <c r="C129" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="K129" s="10" t="s">
+      <c r="K129" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M129" s="5"/>
@@ -8396,27 +8402,27 @@
       <c r="A130" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="C130" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10" t="s">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10" t="s">
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K130" s="10"/>
-      <c r="L130" s="11" t="s">
+      <c r="K130" s="12"/>
+      <c r="L130" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M130" s="5"/>
@@ -8434,33 +8440,33 @@
       <c r="A131" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D131" s="10" t="s">
+      <c r="C131" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10" t="s">
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K131" s="10" t="s">
+      <c r="K131" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L131" s="11" t="s">
+      <c r="L131" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M131" s="5"/>
@@ -8478,31 +8484,31 @@
       <c r="A132" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="C132" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10" t="s">
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K132" s="10"/>
-      <c r="L132" s="11" t="s">
+      <c r="K132" s="12"/>
+      <c r="L132" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M132" s="5"/>
@@ -8520,27 +8526,27 @@
       <c r="A133" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="C133" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="12"/>
+      <c r="F133" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10" t="s">
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K133" s="10"/>
-      <c r="L133" s="11" t="s">
+      <c r="K133" s="12"/>
+      <c r="L133" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M133" s="5"/>
@@ -8558,29 +8564,29 @@
       <c r="A134" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D134" s="10" t="s">
+      <c r="C134" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10" t="s">
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="11" t="s">
+      <c r="K134" s="12"/>
+      <c r="L134" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M134" s="5"/>
@@ -8598,33 +8604,33 @@
       <c r="A135" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="C135" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10" t="s">
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J135" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="K135" s="10" t="s">
+      <c r="K135" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M135" s="5"/>
@@ -8642,33 +8648,33 @@
       <c r="A136" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="C136" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10" t="s">
+      <c r="H136" s="12"/>
+      <c r="I136" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J136" s="10" t="s">
+      <c r="J136" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="K136" s="10"/>
-      <c r="L136" s="11" t="s">
+      <c r="K136" s="12"/>
+      <c r="L136" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M136" s="5"/>
@@ -8686,29 +8692,29 @@
       <c r="A137" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="C137" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10" t="s">
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K137" s="10" t="s">
+      <c r="K137" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M137" s="5"/>
@@ -8726,29 +8732,29 @@
       <c r="A138" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="C138" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10" t="s">
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K138" s="10"/>
-      <c r="L138" s="11" t="s">
+      <c r="K138" s="12"/>
+      <c r="L138" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M138" s="5"/>
@@ -8766,31 +8772,31 @@
       <c r="A139" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="C139" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E139" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10" t="s">
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J139" s="10" t="s">
+      <c r="J139" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="K139" s="10"/>
-      <c r="L139" s="11" t="s">
+      <c r="K139" s="12"/>
+      <c r="L139" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M139" s="5"/>
@@ -8808,29 +8814,29 @@
       <c r="A140" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="C140" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10" t="s">
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K140" s="10" t="s">
+      <c r="K140" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="L140" s="11" t="s">
+      <c r="L140" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M140" s="5"/>
@@ -8848,29 +8854,29 @@
       <c r="A141" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D141" s="10" t="s">
+      <c r="C141" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F141" s="10" t="s">
+      <c r="F141" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10" t="s">
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="K141" s="10"/>
-      <c r="L141" s="11" t="s">
+      <c r="K141" s="12"/>
+      <c r="L141" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M141" s="5"/>
@@ -8888,33 +8894,33 @@
       <c r="A142" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="C142" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F142" s="10" t="s">
+      <c r="F142" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10" t="s">
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K142" s="10" t="s">
+      <c r="K142" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L142" s="11" t="s">
+      <c r="L142" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M142" s="5"/>
@@ -8932,29 +8938,29 @@
       <c r="A143" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10" t="s">
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K143" s="10" t="s">
+      <c r="K143" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="L143" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M143" s="5"/>
@@ -8972,29 +8978,29 @@
       <c r="A144" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D144" s="10" t="s">
+      <c r="C144" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10" t="s">
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="K144" s="10"/>
-      <c r="L144" s="11" t="s">
+      <c r="K144" s="12"/>
+      <c r="L144" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M144" s="5"/>
@@ -9012,33 +9018,33 @@
       <c r="A145" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D145" s="10" t="s">
+      <c r="C145" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10" t="s">
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J145" s="10" t="s">
+      <c r="J145" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K145" s="10" t="s">
+      <c r="K145" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="13" t="s">
         <v>284</v>
       </c>
       <c r="M145" s="5"/>
@@ -9073,7 +9079,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9331,7 +9337,7 @@
         <v>279</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9631,48 +9637,48 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5" t="s">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="2"/>
       <c r="F157" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5" t="s">
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K157" s="5"/>
+      <c r="K157" s="2"/>
       <c r="L157" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M157" s="5" t="s">
+      <c r="M157" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5" t="s">
+      <c r="N157" s="2"/>
+      <c r="O157" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P157" s="5"/>
+      <c r="P157" s="2"/>
       <c r="Q157" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5" t="s">
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
+      <c r="U157" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V157" s="5"/>
+      <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="5" t="s">
@@ -9725,48 +9731,48 @@
       <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5" t="s">
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K159" s="5"/>
+      <c r="K159" s="2"/>
       <c r="L159" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5" t="s">
+      <c r="N159" s="2"/>
+      <c r="O159" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P159" s="5"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
